--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/input/nigeria_rawdata.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/input/nigeria_rawdata.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Wi2050\SDG Financing Simplified model (Egypt)\v4_commented and cleaned - for calibration\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091F9858-AEF8-4502-9F1B-CB6343A68478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age5yr" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,17 @@
     <sheet name="edattainm" sheetId="7" r:id="rId7"/>
     <sheet name="index" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -212,15 +228,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -232,373 +244,36 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -606,251 +281,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -868,64 +301,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1123,24 +512,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="10.5583333333333" customWidth="1"/>
+    <col min="1" max="26" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="2:3">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1148,7 +537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:3">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1156,10 +545,10 @@
         <v>17377.466</v>
       </c>
       <c r="C2" s="6">
-        <v>16561.329</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:3">
+        <v>16561.329000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1167,10 +556,10 @@
         <v>15287.661</v>
       </c>
       <c r="C3" s="6">
-        <v>14625.985</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:3">
+        <v>14625.985000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1178,10 +567,10 @@
         <v>13159.355</v>
       </c>
       <c r="C4" s="6">
-        <v>12633.388</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:3">
+        <v>12633.388000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1192,18 +581,18 @@
         <v>10758.964</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:3">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>9170.281</v>
+        <v>9170.2810000000009</v>
       </c>
       <c r="C6" s="6">
-        <v>8898.293</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:3">
+        <v>8898.2929999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1211,87 +600,87 @@
         <v>7660.61</v>
       </c>
       <c r="C7" s="6">
-        <v>7448.235</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1" spans="1:3">
+        <v>7448.2349999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="6">
-        <v>6613.972</v>
+        <v>6613.9719999999998</v>
       </c>
       <c r="C8" s="6">
         <v>6430.54</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:3">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="6">
-        <v>5745.353</v>
+        <v>5745.3530000000001</v>
       </c>
       <c r="C9" s="6">
-        <v>5578.185</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1" spans="1:3">
+        <v>5578.1850000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>4785.766</v>
+        <v>4785.7659999999996</v>
       </c>
       <c r="C10" s="6">
-        <v>4672.877</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1" spans="1:3">
+        <v>4672.8770000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>3807.418</v>
+        <v>3807.4180000000001</v>
       </c>
       <c r="C11" s="6">
         <v>3771.4</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1" spans="1:3">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>2947.899</v>
+        <v>2947.8989999999999</v>
       </c>
       <c r="C12" s="6">
         <v>2995.57</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1" spans="1:3">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>2330.368</v>
+        <v>2330.3679999999999</v>
       </c>
       <c r="C13" s="6">
-        <v>2426.334</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1" spans="1:3">
+        <v>2426.3339999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="6">
-        <v>1764.536</v>
+        <v>1764.5360000000001</v>
       </c>
       <c r="C14" s="6">
         <v>1892.087</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1" spans="1:3">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -1302,29 +691,29 @@
         <v>1369.452</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1" spans="1:3">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="6">
-        <v>816.324</v>
+        <v>816.32399999999996</v>
       </c>
       <c r="C16" s="6">
-        <v>900.588</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1" spans="1:3">
+        <v>900.58799999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="6">
-        <v>426.433</v>
+        <v>426.43299999999999</v>
       </c>
       <c r="C17" s="6">
         <v>480.358</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1" spans="1:3">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -1332,66 +721,66 @@
         <v>153.999</v>
       </c>
       <c r="C18" s="6">
-        <v>179.349</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1" spans="1:3">
+        <v>179.34899999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="6">
-        <v>34.068</v>
+        <v>34.067999999999998</v>
       </c>
       <c r="C19" s="6">
         <v>41.37</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1" spans="1:3">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="6">
-        <v>3.939</v>
+        <v>3.9390000000000001</v>
       </c>
       <c r="C20" s="6">
-        <v>5.232</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" spans="1:3">
+        <v>5.2320000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="6">
-        <v>0.243</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="C21" s="6">
-        <v>0.396</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1" spans="1:3">
+        <v>0.39600000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="6">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="C22" s="6">
-        <v>0.018</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1" spans="2:3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -2362,28 +1751,24 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="1" orientation="landscape"/>
-  <headerFooter/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.5583333333333" customWidth="1"/>
-    <col min="2" max="2" width="13.1083333333333" customWidth="1"/>
-    <col min="3" max="26" width="10.5583333333333" customWidth="1"/>
+    <col min="1" max="1" width="10.59765625" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" customWidth="1"/>
+    <col min="3" max="26" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="2:3">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -2391,7 +1776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:3">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -2399,10 +1784,10 @@
         <v>97.9</v>
       </c>
       <c r="C2" s="7">
-        <v>12.3034016601603</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:3">
+        <v>12.303401660160301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2410,10 +1795,10 @@
         <v>216.7</v>
       </c>
       <c r="C3" s="7">
-        <v>45.5932105911354</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:3">
+        <v>45.593210591135403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -2421,10 +1806,10 @@
         <v>228.7</v>
       </c>
       <c r="C4" s="7">
-        <v>87.9539333517565</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:3">
+        <v>87.953933351756504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -2435,7 +1820,7 @@
         <v>107.318717911465</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:3">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -2443,10 +1828,10 @@
         <v>167.2</v>
       </c>
       <c r="C6" s="7">
-        <v>64.6720968737279</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:3">
+        <v>64.672096873727895</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -2454,10 +1839,10 @@
         <v>76</v>
       </c>
       <c r="C7" s="7">
-        <v>15.4047684335841</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1" spans="1:3">
+        <v>15.404768433584101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -2465,19 +1850,19 @@
         <v>28.5</v>
       </c>
       <c r="C8" s="7">
-        <v>1.43004733583908</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1" spans="3:3">
+        <v>1.4300473358390799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="C9" s="7"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -3464,26 +2849,22 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="1" orientation="landscape"/>
-  <headerFooter/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="10.5583333333333" customWidth="1"/>
+    <col min="1" max="26" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="2:5">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="B1" t="s">
         <v>25</v>
       </c>
@@ -3497,7 +2878,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3508,13 +2889,13 @@
         <v>94965.06</v>
       </c>
       <c r="D2" s="3">
-        <v>99558.4662776319</v>
+        <v>99558.466277631902</v>
       </c>
       <c r="E2" s="3">
-        <v>99623.0063930079</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:5">
+        <v>99623.006393007905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="3">
         <v>5</v>
       </c>
@@ -3525,13 +2906,13 @@
         <v>91487.55</v>
       </c>
       <c r="D3" s="3">
-        <v>99454.210915998</v>
+        <v>99454.210915998003</v>
       </c>
       <c r="E3" s="3">
-        <v>99533.1184185677</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:5">
+        <v>99533.118418567698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="3">
         <v>10</v>
       </c>
@@ -3545,10 +2926,10 @@
         <v>99394.4514595152</v>
       </c>
       <c r="E4" s="3">
-        <v>99481.1646026676</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:5">
+        <v>99481.164602667603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="3">
         <v>15</v>
       </c>
@@ -3559,13 +2940,13 @@
         <v>87916.33</v>
       </c>
       <c r="D5" s="3">
-        <v>99310.5473896343</v>
+        <v>99310.547389634303</v>
       </c>
       <c r="E5" s="3">
-        <v>99425.2312564958</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:5">
+        <v>99425.231256495797</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="3">
         <v>20</v>
       </c>
@@ -3576,18 +2957,18 @@
         <v>85989.33</v>
       </c>
       <c r="D6" s="3">
-        <v>99092.4639638649</v>
+        <v>99092.463963864895</v>
       </c>
       <c r="E6" s="3">
-        <v>99328.8908378178</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:5">
+        <v>99328.890837817802</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="3">
         <v>25</v>
       </c>
       <c r="B7" s="6">
-        <v>82189.71</v>
+        <v>82189.710000000006</v>
       </c>
       <c r="C7" s="6">
         <v>83547.81</v>
@@ -3596,10 +2977,10 @@
         <v>98706.3112918228</v>
       </c>
       <c r="E7" s="3">
-        <v>99180.6433619081</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1" spans="1:5">
+        <v>99180.643361908107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="3">
         <v>30</v>
       </c>
@@ -3607,16 +2988,16 @@
         <v>79644.88</v>
       </c>
       <c r="C8" s="6">
-        <v>80913.76</v>
+        <v>80913.759999999995</v>
       </c>
       <c r="D8" s="3">
         <v>98225.6141636705</v>
       </c>
       <c r="E8" s="3">
-        <v>98981.0079860987</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:5">
+        <v>98981.007986098703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="3">
         <v>35</v>
       </c>
@@ -3627,13 +3008,13 @@
         <v>78257.48</v>
       </c>
       <c r="D9" s="3">
-        <v>97690.2460909222</v>
+        <v>97690.246090922199</v>
       </c>
       <c r="E9" s="3">
-        <v>98718.991690509</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1" spans="1:5">
+        <v>98718.991690509007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="3">
         <v>40</v>
       </c>
@@ -3644,47 +3025,47 @@
         <v>75478.73</v>
       </c>
       <c r="D10" s="3">
-        <v>97047.3653193127</v>
+        <v>97047.365319312696</v>
       </c>
       <c r="E10" s="3">
-        <v>98363.8473817856</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1" spans="1:5">
+        <v>98363.847381785599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="3">
         <v>45</v>
       </c>
       <c r="B11" s="6">
-        <v>70897.4</v>
+        <v>70897.399999999994</v>
       </c>
       <c r="C11" s="6">
-        <v>72628.6</v>
+        <v>72628.600000000006</v>
       </c>
       <c r="D11" s="3">
-        <v>96163.9727108916</v>
+        <v>96163.972710891598</v>
       </c>
       <c r="E11" s="3">
-        <v>97844.6675307386</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1" spans="1:5">
+        <v>97844.667530738603</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="3">
         <v>50</v>
       </c>
       <c r="B12" s="6">
-        <v>67075.71</v>
+        <v>67075.710000000006</v>
       </c>
       <c r="C12" s="6">
         <v>69590.09</v>
       </c>
       <c r="D12" s="3">
-        <v>94837.501492148</v>
+        <v>94837.501492148003</v>
       </c>
       <c r="E12" s="3">
-        <v>97050.3775135251</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" spans="1:5">
+        <v>97050.377513525105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="3">
         <v>55</v>
       </c>
@@ -3695,13 +3076,13 @@
         <v>65686.06</v>
       </c>
       <c r="D13" s="3">
-        <v>92779.747789658</v>
+        <v>92779.747789657995</v>
       </c>
       <c r="E13" s="3">
-        <v>95842.8064558969</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1" spans="1:5">
+        <v>95842.806455896905</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="3">
         <v>60</v>
       </c>
@@ -3712,13 +3093,13 @@
         <v>60569.88</v>
       </c>
       <c r="D14" s="3">
-        <v>89628.3819520735</v>
+        <v>89628.381952073498</v>
       </c>
       <c r="E14" s="3">
-        <v>94043.1256093588</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1" spans="1:5">
+        <v>94043.125609358802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="3">
         <v>65</v>
       </c>
@@ -3729,13 +3110,13 @@
         <v>52876.42</v>
       </c>
       <c r="D15" s="3">
-        <v>85020.5238482083</v>
+        <v>85020.523848208293</v>
       </c>
       <c r="E15" s="3">
-        <v>91404.9522708399</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1" spans="1:5">
+        <v>91404.952270839902</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="3">
         <v>70</v>
       </c>
@@ -3746,13 +3127,13 @@
         <v>42408.41</v>
       </c>
       <c r="D16" s="3">
-        <v>78830.5019367089</v>
+        <v>78830.501936708897</v>
       </c>
       <c r="E16" s="3">
-        <v>87727.5718043054</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1" spans="1:5">
+        <v>87727.571804305393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="3">
         <v>75</v>
       </c>
@@ -3763,13 +3144,13 @@
         <v>29063.13</v>
       </c>
       <c r="D17" s="3">
-        <v>69972.6984654897</v>
+        <v>69972.698465489695</v>
       </c>
       <c r="E17" s="3">
-        <v>81920.9520650037</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1" spans="1:5">
+        <v>81920.952065003701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="3">
         <v>80</v>
       </c>
@@ -3780,18 +3161,18 @@
         <v>15394.47</v>
       </c>
       <c r="D18" s="3">
-        <v>57088.6391782002</v>
+        <v>57088.639178200203</v>
       </c>
       <c r="E18" s="3">
-        <v>72162.8292947842</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1" spans="1:5">
+        <v>72162.829294784198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="3">
         <v>85</v>
       </c>
       <c r="B19" s="6">
-        <v>4393.65</v>
+        <v>4393.6499999999996</v>
       </c>
       <c r="C19" s="6">
         <v>5344.7</v>
@@ -3803,7 +3184,7 @@
         <v>57193.1158821754</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1" spans="1:5">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="3">
         <v>90</v>
       </c>
@@ -3811,33 +3192,33 @@
         <v>800.58</v>
       </c>
       <c r="C20" s="6">
-        <v>1054.9</v>
+        <v>1054.9000000000001</v>
       </c>
       <c r="D20" s="3">
-        <v>22974.1725048295</v>
+        <v>22974.172504829501</v>
       </c>
       <c r="E20" s="3">
-        <v>37636.6254002739</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" spans="1:5">
+        <v>37636.625400273901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="3">
         <v>95</v>
       </c>
       <c r="B21" s="6">
-        <v>71.74</v>
+        <v>71.739999999999995</v>
       </c>
       <c r="C21" s="6">
         <v>107.6</v>
       </c>
       <c r="D21" s="3">
-        <v>9264.34435747396</v>
+        <v>9264.3443574739595</v>
       </c>
       <c r="E21" s="3">
-        <v>18137.7024147346</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1" spans="1:5">
+        <v>18137.702414734598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="3">
         <v>100</v>
       </c>
@@ -3845,25 +3226,25 @@
         <v>4.68</v>
       </c>
       <c r="C22" s="6">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D22" s="3">
-        <v>2308.82146574295</v>
+        <v>2308.8214657429498</v>
       </c>
       <c r="E22" s="3">
-        <v>5401.16446593289</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+        <v>5401.1644659328904</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -4834,26 +4215,24 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="1" orientation="landscape"/>
-  <headerFooter/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="10.5583333333333" customWidth="1"/>
+    <col min="1" max="26" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="2:6">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="B1" s="3" t="s">
         <v>29</v>
       </c>
@@ -4870,12 +4249,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5">
         <v>6</v>
       </c>
       <c r="B2" s="3">
-        <v>86.45799</v>
+        <v>86.457989999999995</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
@@ -4890,12 +4269,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5">
         <v>7</v>
       </c>
       <c r="B3" s="3">
-        <v>86.45799</v>
+        <v>86.457989999999995</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -4910,12 +4289,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5">
         <v>8</v>
       </c>
       <c r="B4" s="3">
-        <v>86.45799</v>
+        <v>86.457989999999995</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -4930,12 +4309,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:6">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5">
         <v>9</v>
       </c>
       <c r="B5" s="3">
-        <v>86.45799</v>
+        <v>86.457989999999995</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -4950,12 +4329,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:6">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="5">
         <v>10</v>
       </c>
       <c r="B6" s="3">
-        <v>86.45799</v>
+        <v>86.457989999999995</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -4970,12 +4349,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:6">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="5">
         <v>11</v>
       </c>
       <c r="B7" s="3">
-        <v>86.45799</v>
+        <v>86.457989999999995</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
@@ -4990,15 +4369,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" spans="1:6">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="5">
         <v>12</v>
       </c>
       <c r="B8" s="3">
-        <v>48.92189</v>
+        <v>48.921889999999998</v>
       </c>
       <c r="C8" s="3">
-        <v>86.45799</v>
+        <v>86.457989999999995</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -5010,15 +4389,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:6">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="5">
         <v>13</v>
       </c>
       <c r="B9" s="3">
-        <v>48.92189</v>
+        <v>48.921889999999998</v>
       </c>
       <c r="C9" s="3">
-        <v>86.45799</v>
+        <v>86.457989999999995</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
@@ -5030,15 +4409,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1" spans="1:6">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="5">
         <v>14</v>
       </c>
       <c r="B10" s="3">
-        <v>48.92189</v>
+        <v>48.921889999999998</v>
       </c>
       <c r="C10" s="3">
-        <v>86.45799</v>
+        <v>86.457989999999995</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
@@ -5050,18 +4429,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1" spans="1:6">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="5">
         <v>15</v>
       </c>
       <c r="B11" s="3">
-        <v>35.16963</v>
+        <v>35.169629999999998</v>
       </c>
       <c r="C11" s="3">
-        <v>86.45799</v>
+        <v>86.457989999999995</v>
       </c>
       <c r="D11" s="3">
-        <v>48.92189</v>
+        <v>48.921889999999998</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
@@ -5070,18 +4449,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1" spans="1:6">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="5">
         <v>16</v>
       </c>
       <c r="B12" s="3">
-        <v>35.16963</v>
+        <v>35.169629999999998</v>
       </c>
       <c r="C12" s="3">
-        <v>86.45799</v>
+        <v>86.457989999999995</v>
       </c>
       <c r="D12" s="3">
-        <v>48.92189</v>
+        <v>48.921889999999998</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -5090,18 +4469,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1" spans="1:6">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="5">
         <v>17</v>
       </c>
       <c r="B13" s="3">
-        <v>35.16963</v>
+        <v>35.169629999999998</v>
       </c>
       <c r="C13" s="3">
-        <v>86.45799</v>
+        <v>86.457989999999995</v>
       </c>
       <c r="D13" s="3">
-        <v>48.92189</v>
+        <v>48.921889999999998</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -5110,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1" spans="1:6">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="5">
         <v>18</v>
       </c>
@@ -5118,19 +4497,19 @@
         <v>10.1</v>
       </c>
       <c r="C14" s="3">
-        <v>86.45799</v>
+        <v>86.457989999999995</v>
       </c>
       <c r="D14" s="3">
         <v>13.75226</v>
       </c>
       <c r="E14" s="3">
-        <v>35.16963</v>
+        <v>35.169629999999998</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1" spans="1:6">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="5">
         <v>19</v>
       </c>
@@ -5138,19 +4517,19 @@
         <v>10.1</v>
       </c>
       <c r="C15" s="3">
-        <v>86.45799</v>
+        <v>86.457989999999995</v>
       </c>
       <c r="D15" s="3">
         <v>13.75226</v>
       </c>
       <c r="E15" s="3">
-        <v>35.16963</v>
+        <v>35.169629999999998</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1" spans="1:6">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="5">
         <v>20</v>
       </c>
@@ -5158,19 +4537,19 @@
         <v>10.1</v>
       </c>
       <c r="C16" s="3">
-        <v>86.45799</v>
+        <v>86.457989999999995</v>
       </c>
       <c r="D16" s="3">
         <v>13.75226</v>
       </c>
       <c r="E16" s="3">
-        <v>35.16963</v>
+        <v>35.169629999999998</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1" spans="1:6">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="5">
         <v>21</v>
       </c>
@@ -5178,19 +4557,19 @@
         <v>10.1</v>
       </c>
       <c r="C17" s="3">
-        <v>86.45799</v>
+        <v>86.457989999999995</v>
       </c>
       <c r="D17" s="3">
         <v>13.75226</v>
       </c>
       <c r="E17" s="3">
-        <v>35.16963</v>
+        <v>35.169629999999998</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1" spans="1:6">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="5">
         <v>22</v>
       </c>
@@ -5198,19 +4577,19 @@
         <v>10.1</v>
       </c>
       <c r="C18" s="3">
-        <v>86.45799</v>
+        <v>86.457989999999995</v>
       </c>
       <c r="D18" s="3">
         <v>13.75226</v>
       </c>
       <c r="E18" s="3">
-        <v>35.16963</v>
+        <v>35.169629999999998</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1" spans="1:5">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="5">
         <v>23</v>
       </c>
@@ -5218,16 +4597,19 @@
         <v>0</v>
       </c>
       <c r="C19" s="3">
-        <v>86.45799</v>
+        <v>86.457989999999995</v>
       </c>
       <c r="D19" s="3">
         <v>13.75226</v>
       </c>
       <c r="E19" s="3">
-        <v>35.16963</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1" spans="1:5">
+        <v>35.169629999999998</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="5">
         <v>24</v>
       </c>
@@ -5235,27 +4617,30 @@
         <v>0</v>
       </c>
       <c r="C20" s="3">
-        <v>86.45799</v>
+        <v>86.457989999999995</v>
       </c>
       <c r="D20" s="3">
         <v>13.75226</v>
       </c>
       <c r="E20" s="3">
-        <v>35.16963</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+        <v>35.169629999999998</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -6226,25 +5611,24 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="1" orientation="landscape"/>
-  <headerFooter/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1" customHeight="1" spans="2:6">
+    <row r="1" spans="1:6" ht="15" customHeight="1">
       <c r="B1" s="3" t="s">
         <v>29</v>
       </c>
@@ -6261,12 +5645,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="15" customHeight="1">
       <c r="A2" s="3">
         <v>6</v>
       </c>
       <c r="B2" s="3">
-        <v>88.4094</v>
+        <v>88.409400000000005</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
@@ -6281,12 +5665,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="15" customHeight="1">
       <c r="A3" s="3">
         <v>7</v>
       </c>
       <c r="B3" s="3">
-        <v>88.4094</v>
+        <v>88.409400000000005</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -6301,12 +5685,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="15" customHeight="1">
       <c r="A4" s="3">
         <v>8</v>
       </c>
       <c r="B4" s="3">
-        <v>88.4094</v>
+        <v>88.409400000000005</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -6321,12 +5705,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:6">
+    <row r="5" spans="1:6" ht="15" customHeight="1">
       <c r="A5" s="3">
         <v>9</v>
       </c>
       <c r="B5" s="3">
-        <v>88.4094</v>
+        <v>88.409400000000005</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -6341,12 +5725,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:6">
+    <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" s="3">
         <v>10</v>
       </c>
       <c r="B6" s="3">
-        <v>88.4094</v>
+        <v>88.409400000000005</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -6361,12 +5745,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:6">
+    <row r="7" spans="1:6" ht="15" customHeight="1">
       <c r="A7" s="3">
         <v>11</v>
       </c>
       <c r="B7" s="3">
-        <v>88.4094</v>
+        <v>88.409400000000005</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
@@ -6381,15 +5765,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:6">
+    <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="3">
         <v>12</v>
       </c>
       <c r="B8" s="3">
-        <v>50.37597</v>
+        <v>50.375970000000002</v>
       </c>
       <c r="C8" s="3">
-        <v>88.4094</v>
+        <v>88.409400000000005</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -6401,15 +5785,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:6">
+    <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" s="3">
         <v>13</v>
       </c>
       <c r="B9" s="3">
-        <v>50.37597</v>
+        <v>50.375970000000002</v>
       </c>
       <c r="C9" s="3">
-        <v>88.4094</v>
+        <v>88.409400000000005</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
@@ -6421,15 +5805,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:6">
+    <row r="10" spans="1:6" ht="15" customHeight="1">
       <c r="A10" s="3">
         <v>14</v>
       </c>
       <c r="B10" s="3">
-        <v>50.37597</v>
+        <v>50.375970000000002</v>
       </c>
       <c r="C10" s="3">
-        <v>88.4094</v>
+        <v>88.409400000000005</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
@@ -6441,18 +5825,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:6">
+    <row r="11" spans="1:6" ht="15" customHeight="1">
       <c r="A11" s="3">
         <v>15</v>
       </c>
       <c r="B11" s="3">
-        <v>38.09202</v>
+        <v>38.092019999999998</v>
       </c>
       <c r="C11" s="3">
-        <v>38.03343</v>
+        <v>38.033430000000003</v>
       </c>
       <c r="D11" s="3">
-        <v>50.37597</v>
+        <v>50.375970000000002</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
@@ -6461,18 +5845,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:6">
+    <row r="12" spans="1:6" ht="15" customHeight="1">
       <c r="A12" s="3">
         <v>16</v>
       </c>
       <c r="B12" s="3">
-        <v>38.09202</v>
+        <v>38.092019999999998</v>
       </c>
       <c r="C12" s="3">
-        <v>38.03343</v>
+        <v>38.033430000000003</v>
       </c>
       <c r="D12" s="3">
-        <v>50.37597</v>
+        <v>50.375970000000002</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -6481,18 +5865,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:6">
+    <row r="13" spans="1:6" ht="15" customHeight="1">
       <c r="A13" s="3">
         <v>17</v>
       </c>
       <c r="B13" s="3">
-        <v>38.09202</v>
+        <v>38.092019999999998</v>
       </c>
       <c r="C13" s="3">
-        <v>38.03343</v>
+        <v>38.033430000000003</v>
       </c>
       <c r="D13" s="3">
-        <v>50.37597</v>
+        <v>50.375970000000002</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -6501,7 +5885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:6">
+    <row r="14" spans="1:6" ht="15" customHeight="1">
       <c r="A14" s="3">
         <v>18</v>
       </c>
@@ -6509,19 +5893,19 @@
         <v>14</v>
       </c>
       <c r="C14" s="3">
-        <v>38.03343</v>
+        <v>38.033430000000003</v>
       </c>
       <c r="D14" s="3">
-        <v>12.28395</v>
+        <v>12.283950000000001</v>
       </c>
       <c r="E14" s="3">
-        <v>38.09202</v>
+        <v>38.092019999999998</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:6">
+    <row r="15" spans="1:6" ht="15" customHeight="1">
       <c r="A15" s="3">
         <v>19</v>
       </c>
@@ -6529,19 +5913,19 @@
         <v>14</v>
       </c>
       <c r="C15" s="3">
-        <v>38.03343</v>
+        <v>38.033430000000003</v>
       </c>
       <c r="D15" s="3">
-        <v>12.28395</v>
+        <v>12.283950000000001</v>
       </c>
       <c r="E15" s="3">
-        <v>38.09202</v>
+        <v>38.092019999999998</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:6">
+    <row r="16" spans="1:6" ht="15" customHeight="1">
       <c r="A16" s="3">
         <v>20</v>
       </c>
@@ -6549,19 +5933,19 @@
         <v>14</v>
       </c>
       <c r="C16" s="3">
-        <v>38.03343</v>
+        <v>38.033430000000003</v>
       </c>
       <c r="D16" s="3">
-        <v>12.28395</v>
+        <v>12.283950000000001</v>
       </c>
       <c r="E16" s="3">
-        <v>38.09202</v>
+        <v>38.092019999999998</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:6">
+    <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="3">
         <v>21</v>
       </c>
@@ -6569,19 +5953,19 @@
         <v>14</v>
       </c>
       <c r="C17" s="3">
-        <v>38.03343</v>
+        <v>38.033430000000003</v>
       </c>
       <c r="D17" s="3">
-        <v>12.28395</v>
+        <v>12.283950000000001</v>
       </c>
       <c r="E17" s="3">
-        <v>38.09202</v>
+        <v>38.092019999999998</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:6">
+    <row r="18" spans="1:6" ht="15" customHeight="1">
       <c r="A18" s="3">
         <v>22</v>
       </c>
@@ -6589,19 +5973,19 @@
         <v>14</v>
       </c>
       <c r="C18" s="3">
-        <v>38.03343</v>
+        <v>38.033430000000003</v>
       </c>
       <c r="D18" s="3">
-        <v>12.28395</v>
+        <v>12.283950000000001</v>
       </c>
       <c r="E18" s="3">
-        <v>38.09202</v>
+        <v>38.092019999999998</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:5">
+    <row r="19" spans="1:6" ht="15" customHeight="1">
       <c r="A19" s="3">
         <v>23</v>
       </c>
@@ -6609,16 +5993,19 @@
         <v>0</v>
       </c>
       <c r="C19" s="3">
-        <v>38.03343</v>
+        <v>38.033430000000003</v>
       </c>
       <c r="D19" s="3">
-        <v>12.28395</v>
+        <v>12.283950000000001</v>
       </c>
       <c r="E19" s="3">
-        <v>38.09202</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:5">
+        <v>38.092019999999998</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="3">
         <v>24</v>
       </c>
@@ -6626,36 +6013,37 @@
         <v>0</v>
       </c>
       <c r="C20" s="3">
-        <v>38.03343</v>
+        <v>38.033430000000003</v>
       </c>
       <c r="D20" s="3">
-        <v>12.28395</v>
+        <v>12.283950000000001</v>
       </c>
       <c r="E20" s="3">
-        <v>38.09202</v>
+        <v>38.092019999999998</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="10.5583333333333" customWidth="1"/>
+    <col min="1" max="26" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="3:10">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="C1" s="3" t="s">
         <v>34</v>
       </c>
@@ -6681,56 +6069,176 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="4">
         <v>15</v>
       </c>
       <c r="B2" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:2">
+      <c r="C2">
+        <v>0.13</v>
+      </c>
+      <c r="D2">
+        <v>0.27</v>
+      </c>
+      <c r="E2">
+        <v>0.23</v>
+      </c>
+      <c r="F2">
+        <v>0.255</v>
+      </c>
+      <c r="G2">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="H2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I2">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J2">
+        <v>8330.6689999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="4">
         <v>25</v>
       </c>
       <c r="B3" s="4">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:2">
+      <c r="C3">
+        <v>0.21</v>
+      </c>
+      <c r="D3">
+        <v>0.27</v>
+      </c>
+      <c r="E3">
+        <v>0.16</v>
+      </c>
+      <c r="F3">
+        <v>0.11</v>
+      </c>
+      <c r="G3">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="H3">
+        <v>0.15</v>
+      </c>
+      <c r="I3">
+        <v>0.12</v>
+      </c>
+      <c r="J3">
+        <v>7997.4080000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="4">
         <v>35</v>
       </c>
       <c r="B4" s="4">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:2">
+      <c r="C4">
+        <v>0.45</v>
+      </c>
+      <c r="D4">
+        <v>0.26</v>
+      </c>
+      <c r="E4">
+        <v>0.2</v>
+      </c>
+      <c r="F4">
+        <v>0.05</v>
+      </c>
+      <c r="G4">
+        <v>0.04</v>
+      </c>
+      <c r="H4">
+        <v>0.1</v>
+      </c>
+      <c r="I4">
+        <v>0.08</v>
+      </c>
+      <c r="J4">
+        <v>6491.3720000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="4">
         <v>45</v>
       </c>
       <c r="B5" s="4">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:2">
+      <c r="C5">
+        <v>0.45</v>
+      </c>
+      <c r="D5">
+        <v>0.26</v>
+      </c>
+      <c r="E5">
+        <v>0.2</v>
+      </c>
+      <c r="F5">
+        <v>0.05</v>
+      </c>
+      <c r="G5">
+        <v>0.04</v>
+      </c>
+      <c r="H5">
+        <v>0.1</v>
+      </c>
+      <c r="I5">
+        <v>0.08</v>
+      </c>
+      <c r="J5">
+        <v>4625.07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="4">
         <v>55</v>
       </c>
       <c r="B6" s="4">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+      <c r="C6">
+        <v>0.45</v>
+      </c>
+      <c r="D6">
+        <v>0.26</v>
+      </c>
+      <c r="E6">
+        <v>0.2</v>
+      </c>
+      <c r="F6">
+        <v>0.05</v>
+      </c>
+      <c r="G6">
+        <v>0.04</v>
+      </c>
+      <c r="H6">
+        <v>0.1</v>
+      </c>
+      <c r="I6">
+        <v>0.08</v>
+      </c>
+      <c r="J6">
+        <v>3337.9520000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -7714,26 +7222,24 @@
     <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="1" orientation="landscape"/>
-  <headerFooter/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="10.5583333333333" customWidth="1"/>
+    <col min="1" max="26" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="3:10">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="C1" s="3" t="s">
         <v>34</v>
       </c>
@@ -7759,68 +7265,188 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="4">
         <v>15</v>
       </c>
       <c r="B2" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:2">
+      <c r="C2">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="E2">
+        <v>0.245</v>
+      </c>
+      <c r="F2">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="G2">
+        <v>0.22</v>
+      </c>
+      <c r="H2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I2">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J2">
+        <v>8787.018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="4">
         <v>25</v>
       </c>
       <c r="B3" s="4">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:2">
+      <c r="C3">
+        <v>0.13</v>
+      </c>
+      <c r="D3">
+        <v>0.16</v>
+      </c>
+      <c r="E3">
+        <v>0.13</v>
+      </c>
+      <c r="F3">
+        <v>0.13</v>
+      </c>
+      <c r="G3">
+        <v>0.104</v>
+      </c>
+      <c r="H3">
+        <v>0.18</v>
+      </c>
+      <c r="I3">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="J3">
+        <v>8162.3019999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="4">
         <v>35</v>
       </c>
       <c r="B4" s="4">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:2">
+      <c r="C4">
+        <v>0.25</v>
+      </c>
+      <c r="D4">
+        <v>0.26</v>
+      </c>
+      <c r="E4">
+        <v>0.22</v>
+      </c>
+      <c r="F4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G4">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.18</v>
+      </c>
+      <c r="I4">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="J4">
+        <v>6682.3069999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="4">
         <v>45</v>
       </c>
       <c r="B5" s="4">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:2">
+      <c r="C5">
+        <v>0.25</v>
+      </c>
+      <c r="D5">
+        <v>0.26</v>
+      </c>
+      <c r="E5">
+        <v>0.22</v>
+      </c>
+      <c r="F5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G5">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.18</v>
+      </c>
+      <c r="I5">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="J5">
+        <v>4496.2619999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="4">
         <v>55</v>
       </c>
       <c r="B6" s="4">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1" spans="1:1">
+      <c r="C6">
+        <v>0.25</v>
+      </c>
+      <c r="D6">
+        <v>0.26</v>
+      </c>
+      <c r="E6">
+        <v>0.22</v>
+      </c>
+      <c r="F6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G6">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="H6">
+        <v>0.18</v>
+      </c>
+      <c r="I6">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="J6">
+        <v>3255.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:1">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1" spans="1:1">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -8807,27 +8433,23 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="1" orientation="landscape"/>
-  <headerFooter/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.1083333333333" customWidth="1"/>
-    <col min="2" max="26" width="10.5583333333333" customWidth="1"/>
+    <col min="1" max="1" width="17.09765625" customWidth="1"/>
+    <col min="2" max="26" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8838,7 +8460,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
@@ -8853,7 +8475,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -8868,7 +8490,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
@@ -8883,7 +8505,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -8900,7 +8522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
@@ -8917,7 +8539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -8934,7 +8556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -8951,14 +8573,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -9945,7 +9567,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="1" orientation="landscape"/>
-  <headerFooter/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>